--- a/NeuralNetworks/SampleReport.xlsx
+++ b/NeuralNetworks/SampleReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sithum/Git hub projects/MachineLearningAssignment/NeuralNetworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB7B176-9747-584D-907E-38DDF449412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144D788-B1A3-2B49-AF83-49EE4EAC88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{BD824737-3F84-9742-8E3F-CC7C1276F7F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>5,5</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>12,6</t>
   </si>
 </sst>
 </file>
@@ -142,12 +148,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -177,11 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +532,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,35 +543,35 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -827,10 +840,18 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3">
+        <v>0.4668137</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.32476060000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.6517930000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.69753080000000001</v>
+      </c>
       <c r="F11" s="3">
         <v>2</v>
       </c>
@@ -848,15 +869,23 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3">
+        <v>0.80192509999999995</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.58299579999999995</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.1243110000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.3160270000000001</v>
+      </c>
       <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="3" t="b">
         <v>0</v>
@@ -869,14 +898,24 @@
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3">
+        <v>0.79420599999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.58498419999999995</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.184436</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.3220080000000001</v>
+      </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="3" t="b">
         <v>1</v>
       </c>

--- a/NeuralNetworks/SampleReport.xlsx
+++ b/NeuralNetworks/SampleReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sithum/Git hub projects/MachineLearningAssignment/NeuralNetworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144D788-B1A3-2B49-AF83-49EE4EAC88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F89391-A805-094D-8C01-4B3BA2BC4C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{BD824737-3F84-9742-8E3F-CC7C1276F7F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>12,6</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>5,2</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,22 +586,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>0.29739599999999999</v>
+        <v>0.29754409999999998</v>
       </c>
       <c r="C2" s="3">
-        <v>0.2227973</v>
+        <v>0.22236639999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0.9633891</v>
+        <v>0.98167269999999995</v>
       </c>
       <c r="E2" s="3">
-        <v>0.49397239999999998</v>
+        <v>0.49191990000000002</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>1</v>
@@ -696,22 +702,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>0.78489030000000004</v>
+        <v>0.78432029999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>0.56590790000000002</v>
+        <v>0.56461380000000005</v>
       </c>
       <c r="D6" s="3">
-        <v>0.95902790000000004</v>
+        <v>0.96370129999999998</v>
       </c>
       <c r="E6" s="3">
-        <v>1.2369429999999999</v>
+        <v>1.2321390000000001</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
@@ -783,22 +789,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>0.78696250000000001</v>
+        <v>0.78585150000000004</v>
       </c>
       <c r="C9" s="3">
-        <v>0.56982920000000004</v>
+        <v>0.56759680000000001</v>
       </c>
       <c r="D9" s="3">
-        <v>0.96407200000000004</v>
+        <v>0.96490310000000001</v>
       </c>
       <c r="E9" s="3">
-        <v>1.264453</v>
+        <v>1.260216</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -824,10 +830,10 @@
         <v>0.57389049999999997</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="b">
         <v>1</v>
